--- a/варианты 2025/ишимов/18.xlsx
+++ b/варианты 2025/ишимов/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2025\ишимов\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB790A6-0AD6-42F3-8CD5-A54B28BE29BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,26 +263,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,23 +298,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -513,18 +473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="23" max="42" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -734,80 +693,80 @@
         <v>131</v>
       </c>
       <c r="X2" s="3">
-        <f>MIN(W2,X1)+B2</f>
-        <v>117</v>
+        <f>MAX(W2,X1)+B2</f>
+        <v>149</v>
       </c>
       <c r="Y2" s="3">
-        <f>MIN(X2,Y1)+C2</f>
-        <v>197</v>
+        <f>MAX(X2,Y1)+C2</f>
+        <v>229</v>
       </c>
       <c r="Z2" s="3">
-        <f>MIN(Y2,Z1)+D2</f>
-        <v>273</v>
+        <f>MAX(Y2,Z1)+D2</f>
+        <v>305</v>
       </c>
       <c r="AA2" s="3">
-        <f>MIN(Z2,AA1)+E2</f>
-        <v>280</v>
+        <f>MAX(Z2,AA1)+E2</f>
+        <v>324</v>
       </c>
       <c r="AB2" s="3">
-        <f>MIN(AA2,AB1)+F2</f>
-        <v>306</v>
+        <f>MAX(AA2,AB1)+F2</f>
+        <v>354</v>
       </c>
       <c r="AC2" s="3">
-        <f>MIN(AB2,AC1)+G2</f>
-        <v>344</v>
+        <f>MAX(AB2,AC1)+G2</f>
+        <v>404</v>
       </c>
       <c r="AD2" s="3">
-        <f>MIN(AC2,AD1)+H2</f>
-        <v>419</v>
+        <f>MAX(AC2,AD1)+H2</f>
+        <v>479</v>
       </c>
       <c r="AE2" s="3">
-        <f>MIN(AD2,AE1)+I2</f>
-        <v>414</v>
+        <f>MAX(AD2,AE1)+I2</f>
+        <v>518</v>
       </c>
       <c r="AF2" s="3">
-        <f>MIN(AE2,AF1)+J2</f>
-        <v>432</v>
+        <f>MAX(AE2,AF1)+J2</f>
+        <v>536</v>
       </c>
       <c r="AG2" s="3">
-        <f>MIN(AF2,AG1)+K2</f>
-        <v>464</v>
+        <f>MAX(AF2,AG1)+K2</f>
+        <v>568</v>
       </c>
       <c r="AH2" s="13">
         <f t="shared" ref="AH2:AI2" si="1">AG2+L2</f>
-        <v>508</v>
+        <v>612</v>
       </c>
       <c r="AI2" s="13">
         <f t="shared" si="1"/>
-        <v>596</v>
+        <v>700</v>
       </c>
       <c r="AJ2" s="11">
         <f t="shared" ref="AJ2:AJ6" si="2">AJ1+N2</f>
         <v>659</v>
       </c>
       <c r="AK2" s="3">
-        <f>MIN(AJ2,AK1)+O2</f>
-        <v>709</v>
+        <f>MAX(AJ2,AK1)+O2</f>
+        <v>720</v>
       </c>
       <c r="AL2" s="3">
-        <f>MIN(AK2,AL1)+P2</f>
-        <v>739</v>
+        <f>MAX(AK2,AL1)+P2</f>
+        <v>778</v>
       </c>
       <c r="AM2" s="3">
-        <f>MIN(AL2,AM1)+Q2</f>
-        <v>787</v>
+        <f>MAX(AL2,AM1)+Q2</f>
+        <v>826</v>
       </c>
       <c r="AN2" s="3">
-        <f>MIN(AM2,AN1)+R2</f>
-        <v>828</v>
+        <f>MAX(AM2,AN1)+R2</f>
+        <v>896</v>
       </c>
       <c r="AO2" s="3">
-        <f>MIN(AN2,AO1)+S2</f>
-        <v>880</v>
+        <f>MAX(AN2,AO1)+S2</f>
+        <v>992</v>
       </c>
       <c r="AP2" s="4">
-        <f>MIN(AO2,AP1)+T2</f>
-        <v>878</v>
+        <f>MAX(AO2,AP1)+T2</f>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -885,71 +844,71 @@
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z7" si="5">Z2+D3</f>
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="AA3" s="3">
-        <f>MIN(Z3,AA2)+E3</f>
-        <v>344</v>
+        <f>MAX(Z3,AA2)+E3</f>
+        <v>421</v>
       </c>
       <c r="AB3" s="3">
-        <f>MIN(AA3,AB2)+F3</f>
-        <v>337</v>
+        <f>MAX(AA3,AB2)+F3</f>
+        <v>452</v>
       </c>
       <c r="AC3" s="3">
-        <f>MIN(AB3,AC2)+G3</f>
-        <v>383</v>
+        <f>MAX(AB3,AC2)+G3</f>
+        <v>498</v>
       </c>
       <c r="AD3" s="3">
-        <f>MIN(AC3,AD2)+H3</f>
-        <v>461</v>
+        <f>MAX(AC3,AD2)+H3</f>
+        <v>576</v>
       </c>
       <c r="AE3" s="3">
-        <f>MIN(AD3,AE2)+I3</f>
-        <v>507</v>
+        <f>MAX(AD3,AE2)+I3</f>
+        <v>669</v>
       </c>
       <c r="AF3" s="3">
-        <f>MIN(AE3,AF2)+J3</f>
-        <v>459</v>
+        <f>MAX(AE3,AF2)+J3</f>
+        <v>696</v>
       </c>
       <c r="AG3" s="3">
-        <f>MIN(AF3,AG2)+K3</f>
-        <v>479</v>
+        <f>MAX(AF3,AG2)+K3</f>
+        <v>716</v>
       </c>
       <c r="AH3" s="3">
-        <f>MIN(AG3,AH2)+L3</f>
-        <v>559</v>
+        <f>MAX(AG3,AH2)+L3</f>
+        <v>796</v>
       </c>
       <c r="AI3" s="4">
-        <f>MIN(AH3,AI2)+M3</f>
-        <v>656</v>
+        <f>MAX(AH3,AI2)+M3</f>
+        <v>893</v>
       </c>
       <c r="AJ3" s="11">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="AK3" s="3">
-        <f>MIN(AJ3,AK2)+O3</f>
-        <v>774</v>
+        <f>MAX(AJ3,AK2)+O3</f>
+        <v>788</v>
       </c>
       <c r="AL3" s="3">
-        <f>MIN(AK3,AL2)+P3</f>
-        <v>762</v>
+        <f>MAX(AK3,AL2)+P3</f>
+        <v>811</v>
       </c>
       <c r="AM3" s="3">
-        <f>MIN(AL3,AM2)+Q3</f>
-        <v>826</v>
+        <f>MAX(AL3,AM2)+Q3</f>
+        <v>890</v>
       </c>
       <c r="AN3" s="3">
-        <f>MIN(AM3,AN2)+R3</f>
-        <v>907</v>
+        <f>MAX(AM3,AN2)+R3</f>
+        <v>977</v>
       </c>
       <c r="AO3" s="3">
-        <f>MIN(AN3,AO2)+S3</f>
-        <v>893</v>
+        <f>MAX(AN3,AO2)+S3</f>
+        <v>1005</v>
       </c>
       <c r="AP3" s="4">
-        <f>MIN(AO3,AP2)+T3</f>
-        <v>946</v>
+        <f>MAX(AO3,AP2)+T3</f>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -1018,80 +977,80 @@
         <v>267</v>
       </c>
       <c r="X4" s="3">
-        <f>MIN(W4,X3)+B4</f>
-        <v>309</v>
+        <f>MAX(W4,X3)+B4</f>
+        <v>310</v>
       </c>
       <c r="Y4" s="4">
-        <f>MIN(X4,Y3)+C4</f>
-        <v>391</v>
+        <f>MAX(X4,Y3)+C4</f>
+        <v>401</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="5"/>
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="AA4" s="3">
-        <f>MIN(Z4,AA3)+E4</f>
-        <v>408</v>
+        <f>MAX(Z4,AA3)+E4</f>
+        <v>513</v>
       </c>
       <c r="AB4" s="3">
-        <f>MIN(AA4,AB3)+F4</f>
-        <v>419</v>
+        <f>MAX(AA4,AB3)+F4</f>
+        <v>595</v>
       </c>
       <c r="AC4" s="3">
-        <f>MIN(AB4,AC3)+G4</f>
-        <v>478</v>
+        <f>MAX(AB4,AC3)+G4</f>
+        <v>690</v>
       </c>
       <c r="AD4" s="3">
-        <f>MIN(AC4,AD3)+H4</f>
-        <v>545</v>
+        <f>MAX(AC4,AD3)+H4</f>
+        <v>774</v>
       </c>
       <c r="AE4" s="3">
-        <f>MIN(AD4,AE3)+I4</f>
-        <v>538</v>
+        <f>MAX(AD4,AE3)+I4</f>
+        <v>805</v>
       </c>
       <c r="AF4" s="3">
-        <f>MIN(AE4,AF3)+J4</f>
-        <v>476</v>
+        <f>MAX(AE4,AF3)+J4</f>
+        <v>822</v>
       </c>
       <c r="AG4" s="3">
-        <f>MIN(AF4,AG3)+K4</f>
-        <v>513</v>
+        <f>MAX(AF4,AG3)+K4</f>
+        <v>859</v>
       </c>
       <c r="AH4" s="3">
-        <f>MIN(AG4,AH3)+L4</f>
-        <v>561</v>
+        <f>MAX(AG4,AH3)+L4</f>
+        <v>907</v>
       </c>
       <c r="AI4" s="4">
-        <f>MIN(AH4,AI3)+M4</f>
-        <v>605</v>
+        <f>MAX(AH4,AI3)+M4</f>
+        <v>951</v>
       </c>
       <c r="AJ4" s="11">
         <f t="shared" si="2"/>
         <v>764</v>
       </c>
       <c r="AK4" s="3">
-        <f>MIN(AJ4,AK3)+O4</f>
-        <v>820</v>
+        <f>MAX(AJ4,AK3)+O4</f>
+        <v>844</v>
       </c>
       <c r="AL4" s="3">
-        <f>MIN(AK4,AL3)+P4</f>
-        <v>815</v>
+        <f>MAX(AK4,AL3)+P4</f>
+        <v>897</v>
       </c>
       <c r="AM4" s="3">
-        <f>MIN(AL4,AM3)+Q4</f>
-        <v>875</v>
+        <f>MAX(AL4,AM3)+Q4</f>
+        <v>957</v>
       </c>
       <c r="AN4" s="3">
-        <f>MIN(AM4,AN3)+R4</f>
-        <v>890</v>
+        <f>MAX(AM4,AN3)+R4</f>
+        <v>992</v>
       </c>
       <c r="AO4" s="3">
-        <f>MIN(AN4,AO3)+S4</f>
-        <v>988</v>
+        <f>MAX(AN4,AO3)+S4</f>
+        <v>1103</v>
       </c>
       <c r="AP4" s="4">
-        <f>MIN(AO4,AP3)+T4</f>
-        <v>980</v>
+        <f>MAX(AO4,AP3)+T4</f>
+        <v>1137</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -1160,80 +1119,80 @@
         <v>294</v>
       </c>
       <c r="X5" s="3">
-        <f>MIN(W5,X4)+B5</f>
-        <v>372</v>
+        <f>MAX(W5,X4)+B5</f>
+        <v>388</v>
       </c>
       <c r="Y5" s="4">
-        <f>MIN(X5,Y4)+C5</f>
-        <v>436</v>
+        <f>MAX(X5,Y4)+C5</f>
+        <v>465</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="5"/>
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="AA5" s="3">
-        <f>MIN(Z5,AA4)+E5</f>
-        <v>507</v>
+        <f>MAX(Z5,AA4)+E5</f>
+        <v>612</v>
       </c>
       <c r="AB5" s="3">
-        <f>MIN(AA5,AB4)+F5</f>
-        <v>486</v>
+        <f>MAX(AA5,AB4)+F5</f>
+        <v>679</v>
       </c>
       <c r="AC5" s="3">
-        <f>MIN(AB5,AC4)+G5</f>
-        <v>524</v>
+        <f>MAX(AB5,AC4)+G5</f>
+        <v>736</v>
       </c>
       <c r="AD5" s="3">
-        <f>MIN(AC5,AD4)+H5</f>
-        <v>595</v>
+        <f>MAX(AC5,AD4)+H5</f>
+        <v>845</v>
       </c>
       <c r="AE5" s="3">
-        <f>MIN(AD5,AE4)+I5</f>
-        <v>632</v>
+        <f>MAX(AD5,AE4)+I5</f>
+        <v>939</v>
       </c>
       <c r="AF5" s="3">
-        <f>MIN(AE5,AF4)+J5</f>
-        <v>494</v>
+        <f>MAX(AE5,AF4)+J5</f>
+        <v>957</v>
       </c>
       <c r="AG5" s="3">
-        <f>MIN(AF5,AG4)+K5</f>
-        <v>590</v>
+        <f>MAX(AF5,AG4)+K5</f>
+        <v>1053</v>
       </c>
       <c r="AH5" s="3">
-        <f>MIN(AG5,AH4)+L5</f>
-        <v>599</v>
+        <f>MAX(AG5,AH4)+L5</f>
+        <v>1091</v>
       </c>
       <c r="AI5" s="4">
-        <f>MIN(AH5,AI4)+M5</f>
-        <v>689</v>
+        <f>MAX(AH5,AI4)+M5</f>
+        <v>1181</v>
       </c>
       <c r="AJ5" s="11">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
       <c r="AK5" s="3">
-        <f>MIN(AJ5,AK4)+O5</f>
-        <v>826</v>
+        <f>MAX(AJ5,AK4)+O5</f>
+        <v>878</v>
       </c>
       <c r="AL5" s="3">
-        <f>MIN(AK5,AL4)+P5</f>
-        <v>902</v>
+        <f>MAX(AK5,AL4)+P5</f>
+        <v>984</v>
       </c>
       <c r="AM5" s="4">
-        <f>MIN(AL5,AM4)+Q5</f>
-        <v>909</v>
+        <f>MAX(AL5,AM4)+Q5</f>
+        <v>1018</v>
       </c>
       <c r="AN5" s="11">
         <f t="shared" ref="AN5:AN10" si="6">AN4+R5</f>
-        <v>978</v>
+        <v>1080</v>
       </c>
       <c r="AO5" s="3">
-        <f>MIN(AN5,AO4)+S5</f>
-        <v>999</v>
+        <f>MAX(AN5,AO4)+S5</f>
+        <v>1124</v>
       </c>
       <c r="AP5" s="4">
-        <f>MIN(AO5,AP4)+T5</f>
-        <v>1006</v>
+        <f>MAX(AO5,AP4)+T5</f>
+        <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1302,80 +1261,80 @@
         <v>332</v>
       </c>
       <c r="X6" s="3">
-        <f>MIN(W6,X5)+B6</f>
-        <v>380</v>
+        <f>MAX(W6,X5)+B6</f>
+        <v>436</v>
       </c>
       <c r="Y6" s="4">
-        <f>MIN(X6,Y5)+C6</f>
-        <v>431</v>
+        <f>MAX(X6,Y5)+C6</f>
+        <v>516</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="5"/>
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" ref="AA6:AA10" si="7">AA5+E6</f>
-        <v>530</v>
+        <v>635</v>
       </c>
       <c r="AB6" s="3">
-        <f>MIN(AA6,AB5)+F6</f>
-        <v>557</v>
+        <f>MAX(AA6,AB5)+F6</f>
+        <v>750</v>
       </c>
       <c r="AC6" s="3">
-        <f>MIN(AB6,AC5)+G6</f>
-        <v>605</v>
+        <f>MAX(AB6,AC5)+G6</f>
+        <v>831</v>
       </c>
       <c r="AD6" s="3">
-        <f>MIN(AC6,AD5)+H6</f>
-        <v>658</v>
+        <f>MAX(AC6,AD5)+H6</f>
+        <v>908</v>
       </c>
       <c r="AE6" s="3">
-        <f>MIN(AD6,AE5)+I6</f>
-        <v>677</v>
+        <f>MAX(AD6,AE5)+I6</f>
+        <v>984</v>
       </c>
       <c r="AF6" s="3">
-        <f>MIN(AE6,AF5)+J6</f>
-        <v>546</v>
+        <f>MAX(AE6,AF5)+J6</f>
+        <v>1036</v>
       </c>
       <c r="AG6" s="3">
-        <f>MIN(AF6,AG5)+K6</f>
-        <v>588</v>
+        <f>MAX(AF6,AG5)+K6</f>
+        <v>1095</v>
       </c>
       <c r="AH6" s="3">
-        <f>MIN(AG6,AH5)+L6</f>
-        <v>603</v>
+        <f>MAX(AG6,AH5)+L6</f>
+        <v>1110</v>
       </c>
       <c r="AI6" s="4">
-        <f>MIN(AH6,AI5)+M6</f>
-        <v>648</v>
+        <f>MAX(AH6,AI5)+M6</f>
+        <v>1226</v>
       </c>
       <c r="AJ6" s="11">
         <f t="shared" si="2"/>
         <v>874</v>
       </c>
       <c r="AK6" s="3">
-        <f>MIN(AJ6,AK5)+O6</f>
-        <v>924</v>
+        <f>MAX(AJ6,AK5)+O6</f>
+        <v>976</v>
       </c>
       <c r="AL6" s="3">
-        <f>MIN(AK6,AL5)+P6</f>
-        <v>934</v>
+        <f>MAX(AK6,AL5)+P6</f>
+        <v>1016</v>
       </c>
       <c r="AM6" s="4">
-        <f>MIN(AL6,AM5)+Q6</f>
-        <v>956</v>
+        <f>MAX(AL6,AM5)+Q6</f>
+        <v>1065</v>
       </c>
       <c r="AN6" s="11">
         <f t="shared" si="6"/>
-        <v>1008</v>
+        <v>1110</v>
       </c>
       <c r="AO6" s="3">
-        <f>MIN(AN6,AO5)+S6</f>
-        <v>1048</v>
+        <f>MAX(AN6,AO5)+S6</f>
+        <v>1173</v>
       </c>
       <c r="AP6" s="4">
-        <f>MIN(AO6,AP5)+T6</f>
-        <v>1087</v>
+        <f>MAX(AO6,AP5)+T6</f>
+        <v>1254</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1444,80 +1403,80 @@
         <v>358</v>
       </c>
       <c r="X7" s="3">
-        <f>MIN(W7,X6)+B7</f>
-        <v>421</v>
+        <f>MAX(W7,X6)+B7</f>
+        <v>499</v>
       </c>
       <c r="Y7" s="4">
-        <f>MIN(X7,Y6)+C7</f>
-        <v>479</v>
+        <f>MAX(X7,Y6)+C7</f>
+        <v>574</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="5"/>
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="7"/>
-        <v>568</v>
+        <v>673</v>
       </c>
       <c r="AB7" s="3">
-        <f>MIN(AA7,AB6)+F7</f>
-        <v>587</v>
+        <f>MAX(AA7,AB6)+F7</f>
+        <v>780</v>
       </c>
       <c r="AC7" s="3">
-        <f>MIN(AB7,AC6)+G7</f>
-        <v>672</v>
+        <f>MAX(AB7,AC6)+G7</f>
+        <v>916</v>
       </c>
       <c r="AD7" s="3">
-        <f>MIN(AC7,AD6)+H7</f>
-        <v>680</v>
+        <f>MAX(AC7,AD6)+H7</f>
+        <v>938</v>
       </c>
       <c r="AE7" s="3">
-        <f>MIN(AD7,AE6)+I7</f>
-        <v>712</v>
+        <f>MAX(AD7,AE6)+I7</f>
+        <v>1019</v>
       </c>
       <c r="AF7" s="3">
-        <f>MIN(AE7,AF6)+J7</f>
-        <v>591</v>
+        <f>MAX(AE7,AF6)+J7</f>
+        <v>1081</v>
       </c>
       <c r="AG7" s="3">
-        <f>MIN(AF7,AG6)+K7</f>
-        <v>624</v>
+        <f>MAX(AF7,AG6)+K7</f>
+        <v>1131</v>
       </c>
       <c r="AH7" s="3">
-        <f>MIN(AG7,AH6)+L7</f>
-        <v>629</v>
+        <f>MAX(AG7,AH6)+L7</f>
+        <v>1157</v>
       </c>
       <c r="AI7" s="3">
-        <f>MIN(AH7,AI6)+M7</f>
-        <v>641</v>
+        <f>MAX(AH7,AI6)+M7</f>
+        <v>1238</v>
       </c>
       <c r="AJ7" s="3">
-        <f>MIN(AI7,AJ6)+N7</f>
-        <v>688</v>
+        <f>MAX(AI7,AJ6)+N7</f>
+        <v>1285</v>
       </c>
       <c r="AK7" s="3">
-        <f>MIN(AJ7,AK6)+O7</f>
-        <v>721</v>
+        <f>MAX(AJ7,AK6)+O7</f>
+        <v>1318</v>
       </c>
       <c r="AL7" s="3">
-        <f>MIN(AK7,AL6)+P7</f>
-        <v>775</v>
+        <f>MAX(AK7,AL6)+P7</f>
+        <v>1372</v>
       </c>
       <c r="AM7" s="4">
-        <f>MIN(AL7,AM6)+Q7</f>
-        <v>857</v>
+        <f>MAX(AL7,AM6)+Q7</f>
+        <v>1454</v>
       </c>
       <c r="AN7" s="11">
         <f t="shared" si="6"/>
-        <v>1082</v>
+        <v>1184</v>
       </c>
       <c r="AO7" s="4">
-        <f>MIN(AN7,AO6)+S7</f>
-        <v>1147</v>
+        <f>MAX(AN7,AO6)+S7</f>
+        <v>1283</v>
       </c>
       <c r="AP7" s="11">
         <f t="shared" ref="AP7:AP14" si="8">AP6+T7</f>
-        <v>1136</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1586,80 +1545,80 @@
         <v>450</v>
       </c>
       <c r="X8" s="3">
-        <f>MIN(W8,X7)+B8</f>
-        <v>446</v>
+        <f>MAX(W8,X7)+B8</f>
+        <v>524</v>
       </c>
       <c r="Y8" s="3">
-        <f>MIN(X8,Y7)+C8</f>
-        <v>475</v>
+        <f>MAX(X8,Y7)+C8</f>
+        <v>603</v>
       </c>
       <c r="Z8" s="3">
-        <f>MIN(Y8,Z7)+D8</f>
-        <v>491</v>
+        <f>MAX(Y8,Z7)+D8</f>
+        <v>622</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="7"/>
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="AB8" s="3">
-        <f>MIN(AA8,AB7)+F8</f>
-        <v>618</v>
+        <f>MAX(AA8,AB7)+F8</f>
+        <v>814</v>
       </c>
       <c r="AC8" s="3">
-        <f>MIN(AB8,AC7)+G8</f>
-        <v>695</v>
+        <f>MAX(AB8,AC7)+G8</f>
+        <v>993</v>
       </c>
       <c r="AD8" s="3">
-        <f>MIN(AC8,AD7)+H8</f>
-        <v>702</v>
+        <f>MAX(AC8,AD7)+H8</f>
+        <v>1015</v>
       </c>
       <c r="AE8" s="3">
-        <f>MIN(AD8,AE7)+I8</f>
-        <v>714</v>
+        <f>MAX(AD8,AE7)+I8</f>
+        <v>1031</v>
       </c>
       <c r="AF8" s="3">
-        <f>MIN(AE8,AF7)+J8</f>
-        <v>609</v>
+        <f>MAX(AE8,AF7)+J8</f>
+        <v>1099</v>
       </c>
       <c r="AG8" s="3">
-        <f>MIN(AF8,AG7)+K8</f>
-        <v>653</v>
+        <f>MAX(AF8,AG7)+K8</f>
+        <v>1175</v>
       </c>
       <c r="AH8" s="3">
-        <f>MIN(AG8,AH7)+L8</f>
-        <v>653</v>
+        <f>MAX(AG8,AH7)+L8</f>
+        <v>1199</v>
       </c>
       <c r="AI8" s="3">
-        <f>MIN(AH8,AI7)+M8</f>
-        <v>731</v>
+        <f>MAX(AH8,AI7)+M8</f>
+        <v>1328</v>
       </c>
       <c r="AJ8" s="3">
-        <f>MIN(AI8,AJ7)+N8</f>
-        <v>703</v>
+        <f>MAX(AI8,AJ7)+N8</f>
+        <v>1343</v>
       </c>
       <c r="AK8" s="3">
-        <f>MIN(AJ8,AK7)+O8</f>
-        <v>716</v>
+        <f>MAX(AJ8,AK7)+O8</f>
+        <v>1356</v>
       </c>
       <c r="AL8" s="3">
-        <f>MIN(AK8,AL7)+P8</f>
-        <v>794</v>
+        <f>MAX(AK8,AL7)+P8</f>
+        <v>1450</v>
       </c>
       <c r="AM8" s="4">
-        <f>MIN(AL8,AM7)+Q8</f>
-        <v>888</v>
+        <f>MAX(AL8,AM7)+Q8</f>
+        <v>1548</v>
       </c>
       <c r="AN8" s="11">
         <f t="shared" si="6"/>
-        <v>1126</v>
+        <v>1228</v>
       </c>
       <c r="AO8" s="4">
-        <f>MIN(AN8,AO7)+S8</f>
-        <v>1140</v>
+        <f>MAX(AN8,AO7)+S8</f>
+        <v>1297</v>
       </c>
       <c r="AP8" s="11">
         <f t="shared" si="8"/>
-        <v>1180</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -1729,79 +1688,79 @@
       </c>
       <c r="X9" s="11">
         <f t="shared" ref="X9:X13" si="9">X8+B9</f>
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="Y9" s="3">
-        <f>MIN(X9,Y8)+C9</f>
-        <v>536</v>
+        <f>MAX(X9,Y8)+C9</f>
+        <v>664</v>
       </c>
       <c r="Z9" s="3">
-        <f>MIN(Y9,Z8)+D9</f>
-        <v>555</v>
+        <f>MAX(Y9,Z8)+D9</f>
+        <v>728</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="7"/>
-        <v>626</v>
+        <v>731</v>
       </c>
       <c r="AB9" s="3">
-        <f>MIN(AA9,AB8)+F9</f>
-        <v>674</v>
+        <f>MAX(AA9,AB8)+F9</f>
+        <v>870</v>
       </c>
       <c r="AC9" s="3">
-        <f>MIN(AB9,AC8)+G9</f>
-        <v>763</v>
+        <f>MAX(AB9,AC8)+G9</f>
+        <v>1082</v>
       </c>
       <c r="AD9" s="3">
-        <f>MIN(AC9,AD8)+H9</f>
-        <v>727</v>
+        <f>MAX(AC9,AD8)+H9</f>
+        <v>1107</v>
       </c>
       <c r="AE9" s="3">
-        <f>MIN(AD9,AE8)+I9</f>
-        <v>746</v>
+        <f>MAX(AD9,AE8)+I9</f>
+        <v>1139</v>
       </c>
       <c r="AF9" s="3">
-        <f>MIN(AE9,AF8)+J9</f>
-        <v>698</v>
+        <f>MAX(AE9,AF8)+J9</f>
+        <v>1228</v>
       </c>
       <c r="AG9" s="3">
-        <f>MIN(AF9,AG8)+K9</f>
-        <v>675</v>
+        <f>MAX(AF9,AG8)+K9</f>
+        <v>1250</v>
       </c>
       <c r="AH9" s="4">
-        <f>MIN(AG9,AH8)+L9</f>
-        <v>697</v>
+        <f>MAX(AG9,AH8)+L9</f>
+        <v>1294</v>
       </c>
       <c r="AI9" s="11">
         <f t="shared" ref="AI9:AI16" si="10">AI8+M9</f>
-        <v>822</v>
+        <v>1419</v>
       </c>
       <c r="AJ9" s="3">
-        <f>MIN(AI9,AJ8)+N9</f>
-        <v>756</v>
+        <f>MAX(AI9,AJ8)+N9</f>
+        <v>1472</v>
       </c>
       <c r="AK9" s="3">
-        <f>MIN(AJ9,AK8)+O9</f>
-        <v>790</v>
+        <f>MAX(AJ9,AK8)+O9</f>
+        <v>1546</v>
       </c>
       <c r="AL9" s="3">
-        <f>MIN(AK9,AL8)+P9</f>
-        <v>822</v>
+        <f>MAX(AK9,AL8)+P9</f>
+        <v>1578</v>
       </c>
       <c r="AM9" s="4">
-        <f>MIN(AL9,AM8)+Q9</f>
-        <v>846</v>
+        <f>MAX(AL9,AM8)+Q9</f>
+        <v>1602</v>
       </c>
       <c r="AN9" s="11">
         <f t="shared" si="6"/>
-        <v>1139</v>
+        <v>1241</v>
       </c>
       <c r="AO9" s="4">
-        <f>MIN(AN9,AO8)+S9</f>
-        <v>1206</v>
+        <f>MAX(AN9,AO8)+S9</f>
+        <v>1364</v>
       </c>
       <c r="AP9" s="11">
         <f t="shared" si="8"/>
-        <v>1266</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1866,8 +1825,8 @@
         <v>23</v>
       </c>
       <c r="V10">
-        <f>MIN(AH16,AM10,AO14,AP20)</f>
-        <v>928</v>
+        <f>MAX(AH16,AM10,AO14,AP20)</f>
+        <v>2607</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="3"/>
@@ -1875,79 +1834,79 @@
       </c>
       <c r="X10" s="11">
         <f t="shared" si="9"/>
-        <v>599</v>
+        <v>677</v>
       </c>
       <c r="Y10" s="3">
-        <f>MIN(X10,Y9)+C10</f>
-        <v>563</v>
+        <f>MAX(X10,Y9)+C10</f>
+        <v>704</v>
       </c>
       <c r="Z10" s="3">
-        <f>MIN(Y10,Z9)+D10</f>
-        <v>634</v>
+        <f>MAX(Y10,Z9)+D10</f>
+        <v>807</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="7"/>
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="AB10" s="7">
-        <f>MIN(AA10,AB9)+F10</f>
-        <v>724</v>
+        <f>MAX(AA10,AB9)+F10</f>
+        <v>920</v>
       </c>
       <c r="AC10" s="7">
-        <f>MIN(AB10,AC9)+G10</f>
-        <v>759</v>
+        <f>MAX(AB10,AC9)+G10</f>
+        <v>1117</v>
       </c>
       <c r="AD10" s="7">
-        <f>MIN(AC10,AD9)+H10</f>
-        <v>800</v>
+        <f>MAX(AC10,AD9)+H10</f>
+        <v>1190</v>
       </c>
       <c r="AE10" s="7">
-        <f>MIN(AD10,AE9)+I10</f>
-        <v>816</v>
+        <f>MAX(AD10,AE9)+I10</f>
+        <v>1260</v>
       </c>
       <c r="AF10" s="7">
-        <f>MIN(AE10,AF9)+J10</f>
-        <v>713</v>
+        <f>MAX(AE10,AF9)+J10</f>
+        <v>1275</v>
       </c>
       <c r="AG10" s="3">
-        <f>MIN(AF10,AG9)+K10</f>
-        <v>724</v>
+        <f>MAX(AF10,AG9)+K10</f>
+        <v>1324</v>
       </c>
       <c r="AH10" s="4">
-        <f>MIN(AG10,AH9)+L10</f>
-        <v>795</v>
+        <f>MAX(AG10,AH9)+L10</f>
+        <v>1422</v>
       </c>
       <c r="AI10" s="11">
         <f t="shared" si="10"/>
-        <v>838</v>
+        <v>1435</v>
       </c>
       <c r="AJ10" s="3">
-        <f>MIN(AI10,AJ9)+N10</f>
-        <v>807</v>
+        <f>MAX(AI10,AJ9)+N10</f>
+        <v>1523</v>
       </c>
       <c r="AK10" s="7">
-        <f>MIN(AJ10,AK9)+O10</f>
-        <v>859</v>
+        <f>MAX(AJ10,AK9)+O10</f>
+        <v>1615</v>
       </c>
       <c r="AL10" s="7">
-        <f>MIN(AK10,AL9)+P10</f>
-        <v>911</v>
+        <f>MAX(AK10,AL9)+P10</f>
+        <v>1704</v>
       </c>
       <c r="AM10" s="10">
-        <f>MIN(AL10,AM9)+Q10</f>
-        <v>928</v>
+        <f>MAX(AL10,AM9)+Q10</f>
+        <v>1786</v>
       </c>
       <c r="AN10" s="11">
         <f t="shared" si="6"/>
-        <v>1193</v>
+        <v>1295</v>
       </c>
       <c r="AO10" s="4">
-        <f>MIN(AN10,AO9)+S10</f>
-        <v>1284</v>
+        <f>MAX(AN10,AO9)+S10</f>
+        <v>1455</v>
       </c>
       <c r="AP10" s="11">
         <f t="shared" si="8"/>
-        <v>1289</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2017,79 +1976,79 @@
       </c>
       <c r="X11" s="11">
         <f t="shared" si="9"/>
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="Y11" s="3">
-        <f>MIN(X11,Y10)+C11</f>
-        <v>606</v>
+        <f>MAX(X11,Y10)+C11</f>
+        <v>747</v>
       </c>
       <c r="Z11" s="3">
-        <f>MIN(Y11,Z10)+D11</f>
-        <v>676</v>
+        <f>MAX(Y11,Z10)+D11</f>
+        <v>877</v>
       </c>
       <c r="AA11" s="13">
         <f t="shared" ref="AA11:AF11" si="11">Z11+E11</f>
-        <v>727</v>
+        <v>928</v>
       </c>
       <c r="AB11" s="13">
         <f t="shared" si="11"/>
-        <v>739</v>
+        <v>940</v>
       </c>
       <c r="AC11" s="13">
         <f t="shared" si="11"/>
-        <v>763</v>
+        <v>964</v>
       </c>
       <c r="AD11" s="13">
         <f t="shared" si="11"/>
-        <v>860</v>
+        <v>1061</v>
       </c>
       <c r="AE11" s="13">
         <f t="shared" si="11"/>
-        <v>877</v>
+        <v>1078</v>
       </c>
       <c r="AF11" s="13">
         <f t="shared" si="11"/>
-        <v>920</v>
+        <v>1121</v>
       </c>
       <c r="AG11" s="3">
-        <f>MIN(AF11,AG10)+K11</f>
-        <v>789</v>
+        <f>MAX(AF11,AG10)+K11</f>
+        <v>1389</v>
       </c>
       <c r="AH11" s="4">
-        <f>MIN(AG11,AH10)+L11</f>
-        <v>816</v>
+        <f>MAX(AG11,AH10)+L11</f>
+        <v>1449</v>
       </c>
       <c r="AI11" s="11">
         <f t="shared" si="10"/>
-        <v>879</v>
+        <v>1476</v>
       </c>
       <c r="AJ11" s="3">
-        <f>MIN(AI11,AJ10)+N11</f>
-        <v>843</v>
+        <f>MAX(AI11,AJ10)+N11</f>
+        <v>1559</v>
       </c>
       <c r="AK11" s="13">
         <f t="shared" ref="AK11:AM11" si="12">AJ11+O11</f>
-        <v>910</v>
+        <v>1626</v>
       </c>
       <c r="AL11" s="13">
         <f t="shared" si="12"/>
-        <v>980</v>
+        <v>1696</v>
       </c>
       <c r="AM11" s="13">
         <f t="shared" si="12"/>
-        <v>1061</v>
+        <v>1777</v>
       </c>
       <c r="AN11" s="3">
-        <f>MIN(AM11,AN10)+R11</f>
-        <v>1112</v>
+        <f>MAX(AM11,AN10)+R11</f>
+        <v>1828</v>
       </c>
       <c r="AO11" s="4">
-        <f>MIN(AN11,AO10)+S11</f>
-        <v>1169</v>
+        <f>MAX(AN11,AO10)+S11</f>
+        <v>1885</v>
       </c>
       <c r="AP11" s="11">
         <f t="shared" si="8"/>
-        <v>1354</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2159,79 +2118,79 @@
       </c>
       <c r="X12" s="11">
         <f t="shared" si="9"/>
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="Y12" s="3">
-        <f>MIN(X12,Y11)+C12</f>
-        <v>622</v>
+        <f>MAX(X12,Y11)+C12</f>
+        <v>763</v>
       </c>
       <c r="Z12" s="3">
-        <f>MIN(Y12,Z11)+D12</f>
-        <v>652</v>
+        <f>MAX(Y12,Z11)+D12</f>
+        <v>907</v>
       </c>
       <c r="AA12" s="3">
-        <f>MIN(Z12,AA11)+E12</f>
-        <v>728</v>
+        <f>MAX(Z12,AA11)+E12</f>
+        <v>1004</v>
       </c>
       <c r="AB12" s="3">
-        <f>MIN(AA12,AB11)+F12</f>
-        <v>815</v>
+        <f>MAX(AA12,AB11)+F12</f>
+        <v>1091</v>
       </c>
       <c r="AC12" s="3">
-        <f>MIN(AB12,AC11)+G12</f>
-        <v>788</v>
+        <f>MAX(AB12,AC11)+G12</f>
+        <v>1116</v>
       </c>
       <c r="AD12" s="3">
-        <f>MIN(AC12,AD11)+H12</f>
-        <v>820</v>
+        <f>MAX(AC12,AD11)+H12</f>
+        <v>1148</v>
       </c>
       <c r="AE12" s="3">
-        <f>MIN(AD12,AE11)+I12</f>
-        <v>915</v>
+        <f>MAX(AD12,AE11)+I12</f>
+        <v>1243</v>
       </c>
       <c r="AF12" s="3">
-        <f>MIN(AE12,AF11)+J12</f>
-        <v>975</v>
+        <f>MAX(AE12,AF11)+J12</f>
+        <v>1303</v>
       </c>
       <c r="AG12" s="3">
-        <f>MIN(AF12,AG11)+K12</f>
-        <v>880</v>
+        <f>MAX(AF12,AG11)+K12</f>
+        <v>1480</v>
       </c>
       <c r="AH12" s="4">
-        <f>MIN(AG12,AH11)+L12</f>
-        <v>886</v>
+        <f>MAX(AG12,AH11)+L12</f>
+        <v>1550</v>
       </c>
       <c r="AI12" s="11">
         <f t="shared" si="10"/>
-        <v>942</v>
+        <v>1539</v>
       </c>
       <c r="AJ12" s="3">
-        <f>MIN(AI12,AJ11)+N12</f>
-        <v>909</v>
+        <f>MAX(AI12,AJ11)+N12</f>
+        <v>1625</v>
       </c>
       <c r="AK12" s="3">
-        <f>MIN(AJ12,AK11)+O12</f>
-        <v>964</v>
+        <f>MAX(AJ12,AK11)+O12</f>
+        <v>1681</v>
       </c>
       <c r="AL12" s="3">
-        <f>MIN(AK12,AL11)+P12</f>
-        <v>1060</v>
+        <f>MAX(AK12,AL11)+P12</f>
+        <v>1792</v>
       </c>
       <c r="AM12" s="3">
-        <f>MIN(AL12,AM11)+Q12</f>
-        <v>1100</v>
+        <f>MAX(AL12,AM11)+Q12</f>
+        <v>1832</v>
       </c>
       <c r="AN12" s="3">
-        <f>MIN(AM12,AN11)+R12</f>
-        <v>1127</v>
+        <f>MAX(AM12,AN11)+R12</f>
+        <v>1859</v>
       </c>
       <c r="AO12" s="4">
-        <f>MIN(AN12,AO11)+S12</f>
-        <v>1176</v>
+        <f>MAX(AN12,AO11)+S12</f>
+        <v>1934</v>
       </c>
       <c r="AP12" s="11">
         <f t="shared" si="8"/>
-        <v>1406</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,79 +2260,79 @@
       </c>
       <c r="X13" s="11">
         <f t="shared" si="9"/>
-        <v>745</v>
+        <v>823</v>
       </c>
       <c r="Y13" s="7">
-        <f>MIN(X13,Y12)+C13</f>
-        <v>654</v>
+        <f>MAX(X13,Y12)+C13</f>
+        <v>855</v>
       </c>
       <c r="Z13" s="7">
-        <f>MIN(Y13,Z12)+D13</f>
-        <v>745</v>
+        <f>MAX(Y13,Z12)+D13</f>
+        <v>1000</v>
       </c>
       <c r="AA13" s="7">
-        <f>MIN(Z13,AA12)+E13</f>
-        <v>774</v>
+        <f>MAX(Z13,AA12)+E13</f>
+        <v>1050</v>
       </c>
       <c r="AB13" s="7">
-        <f>MIN(AA13,AB12)+F13</f>
-        <v>841</v>
+        <f>MAX(AA13,AB12)+F13</f>
+        <v>1158</v>
       </c>
       <c r="AC13" s="7">
-        <f>MIN(AB13,AC12)+G13</f>
-        <v>858</v>
+        <f>MAX(AB13,AC12)+G13</f>
+        <v>1228</v>
       </c>
       <c r="AD13" s="3">
-        <f>MIN(AC13,AD12)+H13</f>
-        <v>916</v>
+        <f>MAX(AC13,AD12)+H13</f>
+        <v>1324</v>
       </c>
       <c r="AE13" s="3">
-        <f>MIN(AD13,AE12)+I13</f>
-        <v>937</v>
+        <f>MAX(AD13,AE12)+I13</f>
+        <v>1346</v>
       </c>
       <c r="AF13" s="3">
-        <f>MIN(AE13,AF12)+J13</f>
-        <v>1000</v>
+        <f>MAX(AE13,AF12)+J13</f>
+        <v>1409</v>
       </c>
       <c r="AG13" s="3">
-        <f>MIN(AF13,AG12)+K13</f>
-        <v>898</v>
+        <f>MAX(AF13,AG12)+K13</f>
+        <v>1498</v>
       </c>
       <c r="AH13" s="4">
-        <f>MIN(AG13,AH12)+L13</f>
-        <v>963</v>
+        <f>MAX(AG13,AH12)+L13</f>
+        <v>1627</v>
       </c>
       <c r="AI13" s="11">
         <f t="shared" si="10"/>
-        <v>996</v>
+        <v>1593</v>
       </c>
       <c r="AJ13" s="3">
-        <f>MIN(AI13,AJ12)+N13</f>
-        <v>927</v>
+        <f>MAX(AI13,AJ12)+N13</f>
+        <v>1643</v>
       </c>
       <c r="AK13" s="3">
-        <f>MIN(AJ13,AK12)+O13</f>
-        <v>1018</v>
+        <f>MAX(AJ13,AK12)+O13</f>
+        <v>1772</v>
       </c>
       <c r="AL13" s="3">
-        <f>MIN(AK13,AL12)+P13</f>
-        <v>1046</v>
+        <f>MAX(AK13,AL12)+P13</f>
+        <v>1820</v>
       </c>
       <c r="AM13" s="3">
-        <f>MIN(AL13,AM12)+Q13</f>
-        <v>1106</v>
+        <f>MAX(AL13,AM12)+Q13</f>
+        <v>1892</v>
       </c>
       <c r="AN13" s="3">
-        <f>MIN(AM13,AN12)+R13</f>
-        <v>1200</v>
+        <f>MAX(AM13,AN12)+R13</f>
+        <v>1986</v>
       </c>
       <c r="AO13" s="4">
-        <f>MIN(AN13,AO12)+S13</f>
-        <v>1248</v>
+        <f>MAX(AN13,AO12)+S13</f>
+        <v>2058</v>
       </c>
       <c r="AP13" s="11">
         <f t="shared" si="8"/>
-        <v>1501</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,56 +2425,56 @@
         <v>1226</v>
       </c>
       <c r="AD14" s="3">
-        <f>MIN(AC14,AD13)+H14</f>
-        <v>953</v>
+        <f>MAX(AC14,AD13)+H14</f>
+        <v>1361</v>
       </c>
       <c r="AE14" s="3">
-        <f>MIN(AD14,AE13)+I14</f>
-        <v>960</v>
+        <f>MAX(AD14,AE13)+I14</f>
+        <v>1384</v>
       </c>
       <c r="AF14" s="3">
-        <f>MIN(AE14,AF13)+J14</f>
-        <v>1035</v>
+        <f>MAX(AE14,AF13)+J14</f>
+        <v>1484</v>
       </c>
       <c r="AG14" s="3">
-        <f>MIN(AF14,AG13)+K14</f>
-        <v>947</v>
+        <f>MAX(AF14,AG13)+K14</f>
+        <v>1547</v>
       </c>
       <c r="AH14" s="4">
-        <f>MIN(AG14,AH13)+L14</f>
-        <v>1027</v>
+        <f>MAX(AG14,AH13)+L14</f>
+        <v>1707</v>
       </c>
       <c r="AI14" s="11">
         <f t="shared" si="10"/>
-        <v>1072</v>
+        <v>1669</v>
       </c>
       <c r="AJ14" s="3">
-        <f>MIN(AI14,AJ13)+N14</f>
-        <v>945</v>
+        <f>MAX(AI14,AJ13)+N14</f>
+        <v>1687</v>
       </c>
       <c r="AK14" s="3">
-        <f>MIN(AJ14,AK13)+O14</f>
-        <v>1007</v>
+        <f>MAX(AJ14,AK13)+O14</f>
+        <v>1834</v>
       </c>
       <c r="AL14" s="3">
-        <f>MIN(AK14,AL13)+P14</f>
-        <v>1045</v>
+        <f>MAX(AK14,AL13)+P14</f>
+        <v>1872</v>
       </c>
       <c r="AM14" s="7">
-        <f>MIN(AL14,AM13)+Q14</f>
-        <v>1092</v>
+        <f>MAX(AL14,AM13)+Q14</f>
+        <v>1939</v>
       </c>
       <c r="AN14" s="7">
-        <f>MIN(AM14,AN13)+R14</f>
-        <v>1160</v>
+        <f>MAX(AM14,AN13)+R14</f>
+        <v>2054</v>
       </c>
       <c r="AO14" s="10">
-        <f>MIN(AN14,AO13)+S14</f>
-        <v>1256</v>
+        <f>MAX(AN14,AO13)+S14</f>
+        <v>2154</v>
       </c>
       <c r="AP14" s="11">
         <f t="shared" si="8"/>
-        <v>1584</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2584,80 +2543,80 @@
         <v>974</v>
       </c>
       <c r="X15" s="3">
-        <f>MIN(W15,X14)+B15</f>
-        <v>965</v>
+        <f>MAX(W15,X14)+B15</f>
+        <v>1008</v>
       </c>
       <c r="Y15" s="3">
-        <f>MIN(X15,Y14)+C15</f>
-        <v>1036</v>
+        <f>MAX(X15,Y14)+C15</f>
+        <v>1093</v>
       </c>
       <c r="Z15" s="3">
-        <f>MIN(Y15,Z14)+D15</f>
-        <v>1025</v>
+        <f>MAX(Y15,Z14)+D15</f>
+        <v>1108</v>
       </c>
       <c r="AA15" s="3">
-        <f>MIN(Z15,AA14)+E15</f>
-        <v>1079</v>
+        <f>MAX(Z15,AA14)+E15</f>
+        <v>1162</v>
       </c>
       <c r="AB15" s="3">
-        <f>MIN(AA15,AB14)+F15</f>
-        <v>1161</v>
+        <f>MAX(AA15,AB14)+F15</f>
+        <v>1244</v>
       </c>
       <c r="AC15" s="3">
-        <f>MIN(AB15,AC14)+G15</f>
-        <v>1208</v>
+        <f>MAX(AB15,AC14)+G15</f>
+        <v>1291</v>
       </c>
       <c r="AD15" s="3">
-        <f>MIN(AC15,AD14)+H15</f>
-        <v>992</v>
+        <f>MAX(AC15,AD14)+H15</f>
+        <v>1400</v>
       </c>
       <c r="AE15" s="3">
-        <f>MIN(AD15,AE14)+I15</f>
-        <v>1023</v>
+        <f>MAX(AD15,AE14)+I15</f>
+        <v>1463</v>
       </c>
       <c r="AF15" s="3">
-        <f>MIN(AE15,AF14)+J15</f>
-        <v>1041</v>
+        <f>MAX(AE15,AF14)+J15</f>
+        <v>1502</v>
       </c>
       <c r="AG15" s="3">
-        <f>MIN(AF15,AG14)+K15</f>
-        <v>1032</v>
+        <f>MAX(AF15,AG14)+K15</f>
+        <v>1632</v>
       </c>
       <c r="AH15" s="4">
-        <f>MIN(AG15,AH14)+L15</f>
-        <v>1085</v>
+        <f>MAX(AG15,AH14)+L15</f>
+        <v>1765</v>
       </c>
       <c r="AI15" s="11">
         <f t="shared" si="10"/>
-        <v>1148</v>
+        <v>1745</v>
       </c>
       <c r="AJ15" s="3">
-        <f>MIN(AI15,AJ14)+N15</f>
-        <v>1037</v>
+        <f>MAX(AI15,AJ14)+N15</f>
+        <v>1837</v>
       </c>
       <c r="AK15" s="3">
-        <f>MIN(AJ15,AK14)+O15</f>
-        <v>1096</v>
+        <f>MAX(AJ15,AK14)+O15</f>
+        <v>1926</v>
       </c>
       <c r="AL15" s="3">
-        <f>MIN(AK15,AL14)+P15</f>
-        <v>1073</v>
+        <f>MAX(AK15,AL14)+P15</f>
+        <v>1954</v>
       </c>
       <c r="AM15" s="13">
         <f t="shared" ref="AM15:AO15" si="14">AL15+Q15</f>
-        <v>1108</v>
+        <v>1989</v>
       </c>
       <c r="AN15" s="13">
         <f t="shared" si="14"/>
-        <v>1126</v>
+        <v>2007</v>
       </c>
       <c r="AO15" s="13">
         <f t="shared" si="14"/>
-        <v>1198</v>
+        <v>2079</v>
       </c>
       <c r="AP15" s="4">
-        <f>MIN(AO15,AP14)+T15</f>
-        <v>1252</v>
+        <f>MAX(AO15,AP14)+T15</f>
+        <v>2133</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2726,80 +2685,80 @@
         <v>1025</v>
       </c>
       <c r="X16" s="3">
-        <f>MIN(W16,X15)+B16</f>
-        <v>980</v>
+        <f>MAX(W16,X15)+B16</f>
+        <v>1040</v>
       </c>
       <c r="Y16" s="3">
-        <f>MIN(X16,Y15)+C16</f>
-        <v>1007</v>
+        <f>MAX(X16,Y15)+C16</f>
+        <v>1120</v>
       </c>
       <c r="Z16" s="3">
-        <f>MIN(Y16,Z15)+D16</f>
-        <v>1066</v>
+        <f>MAX(Y16,Z15)+D16</f>
+        <v>1179</v>
       </c>
       <c r="AA16" s="3">
-        <f>MIN(Z16,AA15)+E16</f>
-        <v>1103</v>
+        <f>MAX(Z16,AA15)+E16</f>
+        <v>1216</v>
       </c>
       <c r="AB16" s="3">
-        <f>MIN(AA16,AB15)+F16</f>
-        <v>1151</v>
+        <f>MAX(AA16,AB15)+F16</f>
+        <v>1292</v>
       </c>
       <c r="AC16" s="3">
-        <f>MIN(AB16,AC15)+G16</f>
-        <v>1184</v>
+        <f>MAX(AB16,AC15)+G16</f>
+        <v>1325</v>
       </c>
       <c r="AD16" s="3">
-        <f>MIN(AC16,AD15)+H16</f>
-        <v>1081</v>
+        <f>MAX(AC16,AD15)+H16</f>
+        <v>1489</v>
       </c>
       <c r="AE16" s="3">
-        <f>MIN(AD16,AE15)+I16</f>
-        <v>1089</v>
+        <f>MAX(AD16,AE15)+I16</f>
+        <v>1555</v>
       </c>
       <c r="AF16" s="7">
-        <f>MIN(AE16,AF15)+J16</f>
-        <v>1085</v>
+        <f>MAX(AE16,AF15)+J16</f>
+        <v>1599</v>
       </c>
       <c r="AG16" s="7">
-        <f>MIN(AF16,AG15)+K16</f>
-        <v>1077</v>
+        <f>MAX(AF16,AG15)+K16</f>
+        <v>1677</v>
       </c>
       <c r="AH16" s="10">
-        <f>MIN(AG16,AH15)+L16</f>
-        <v>1136</v>
+        <f>MAX(AG16,AH15)+L16</f>
+        <v>1824</v>
       </c>
       <c r="AI16" s="11">
         <f t="shared" si="10"/>
-        <v>1200</v>
+        <v>1797</v>
       </c>
       <c r="AJ16" s="3">
-        <f>MIN(AI16,AJ15)+N16</f>
-        <v>1093</v>
+        <f>MAX(AI16,AJ15)+N16</f>
+        <v>1893</v>
       </c>
       <c r="AK16" s="3">
-        <f>MIN(AJ16,AK15)+O16</f>
-        <v>1175</v>
+        <f>MAX(AJ16,AK15)+O16</f>
+        <v>2008</v>
       </c>
       <c r="AL16" s="3">
-        <f>MIN(AK16,AL15)+P16</f>
-        <v>1133</v>
+        <f>MAX(AK16,AL15)+P16</f>
+        <v>2068</v>
       </c>
       <c r="AM16" s="3">
-        <f>MIN(AL16,AM15)+Q16</f>
-        <v>1121</v>
+        <f>MAX(AL16,AM15)+Q16</f>
+        <v>2081</v>
       </c>
       <c r="AN16" s="3">
-        <f>MIN(AM16,AN15)+R16</f>
-        <v>1181</v>
+        <f>MAX(AM16,AN15)+R16</f>
+        <v>2141</v>
       </c>
       <c r="AO16" s="3">
-        <f>MIN(AN16,AO15)+S16</f>
-        <v>1247</v>
+        <f>MAX(AN16,AO15)+S16</f>
+        <v>2207</v>
       </c>
       <c r="AP16" s="4">
-        <f>MIN(AO16,AP15)+T16</f>
-        <v>1269</v>
+        <f>MAX(AO16,AP15)+T16</f>
+        <v>2229</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2868,80 +2827,80 @@
         <v>1087</v>
       </c>
       <c r="X17" s="3">
-        <f>MIN(W17,X16)+B17</f>
-        <v>1050</v>
+        <f>MAX(W17,X16)+B17</f>
+        <v>1157</v>
       </c>
       <c r="Y17" s="3">
-        <f>MIN(X17,Y16)+C17</f>
-        <v>1044</v>
+        <f>MAX(X17,Y16)+C17</f>
+        <v>1194</v>
       </c>
       <c r="Z17" s="3">
-        <f>MIN(Y17,Z16)+D17</f>
-        <v>1097</v>
+        <f>MAX(Y17,Z16)+D17</f>
+        <v>1247</v>
       </c>
       <c r="AA17" s="3">
-        <f>MIN(Z17,AA16)+E17</f>
-        <v>1126</v>
+        <f>MAX(Z17,AA16)+E17</f>
+        <v>1276</v>
       </c>
       <c r="AB17" s="3">
-        <f>MIN(AA17,AB16)+F17</f>
-        <v>1204</v>
+        <f>MAX(AA17,AB16)+F17</f>
+        <v>1370</v>
       </c>
       <c r="AC17" s="3">
-        <f>MIN(AB17,AC16)+G17</f>
-        <v>1231</v>
+        <f>MAX(AB17,AC16)+G17</f>
+        <v>1417</v>
       </c>
       <c r="AD17" s="3">
-        <f>MIN(AC17,AD16)+H17</f>
-        <v>1177</v>
+        <f>MAX(AC17,AD16)+H17</f>
+        <v>1585</v>
       </c>
       <c r="AE17" s="3">
-        <f>MIN(AD17,AE16)+I17</f>
-        <v>1115</v>
+        <f>MAX(AD17,AE16)+I17</f>
+        <v>1611</v>
       </c>
       <c r="AF17" s="13">
         <f t="shared" ref="AF17:AH17" si="15">AE17+J17</f>
-        <v>1149</v>
+        <v>1645</v>
       </c>
       <c r="AG17" s="13">
         <f t="shared" si="15"/>
-        <v>1172</v>
+        <v>1668</v>
       </c>
       <c r="AH17" s="13">
         <f t="shared" si="15"/>
-        <v>1235</v>
+        <v>1731</v>
       </c>
       <c r="AI17" s="3">
-        <f>MIN(AH17,AI16)+M17</f>
-        <v>1263</v>
+        <f>MAX(AH17,AI16)+M17</f>
+        <v>1860</v>
       </c>
       <c r="AJ17" s="3">
-        <f>MIN(AI17,AJ16)+N17</f>
-        <v>1105</v>
+        <f>MAX(AI17,AJ16)+N17</f>
+        <v>1905</v>
       </c>
       <c r="AK17" s="3">
-        <f>MIN(AJ17,AK16)+O17</f>
-        <v>1154</v>
+        <f>MAX(AJ17,AK16)+O17</f>
+        <v>2057</v>
       </c>
       <c r="AL17" s="3">
-        <f>MIN(AK17,AL16)+P17</f>
-        <v>1230</v>
+        <f>MAX(AK17,AL16)+P17</f>
+        <v>2165</v>
       </c>
       <c r="AM17" s="3">
-        <f>MIN(AL17,AM16)+Q17</f>
-        <v>1187</v>
+        <f>MAX(AL17,AM16)+Q17</f>
+        <v>2231</v>
       </c>
       <c r="AN17" s="3">
-        <f>MIN(AM17,AN16)+R17</f>
-        <v>1226</v>
+        <f>MAX(AM17,AN16)+R17</f>
+        <v>2276</v>
       </c>
       <c r="AO17" s="3">
-        <f>MIN(AN17,AO16)+S17</f>
-        <v>1245</v>
+        <f>MAX(AN17,AO16)+S17</f>
+        <v>2295</v>
       </c>
       <c r="AP17" s="4">
-        <f>MIN(AO17,AP16)+T17</f>
-        <v>1296</v>
+        <f>MAX(AO17,AP16)+T17</f>
+        <v>2346</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -3010,80 +2969,80 @@
         <v>1108</v>
       </c>
       <c r="X18" s="3">
-        <f>MIN(W18,X17)+B18</f>
-        <v>1080</v>
+        <f>MAX(W18,X17)+B18</f>
+        <v>1187</v>
       </c>
       <c r="Y18" s="3">
-        <f>MIN(X18,Y17)+C18</f>
-        <v>1074</v>
+        <f>MAX(X18,Y17)+C18</f>
+        <v>1224</v>
       </c>
       <c r="Z18" s="3">
-        <f>MIN(Y18,Z17)+D18</f>
-        <v>1118</v>
+        <f>MAX(Y18,Z17)+D18</f>
+        <v>1291</v>
       </c>
       <c r="AA18" s="3">
-        <f>MIN(Z18,AA17)+E18</f>
-        <v>1215</v>
+        <f>MAX(Z18,AA17)+E18</f>
+        <v>1388</v>
       </c>
       <c r="AB18" s="3">
-        <f>MIN(AA18,AB17)+F18</f>
-        <v>1224</v>
+        <f>MAX(AA18,AB17)+F18</f>
+        <v>1408</v>
       </c>
       <c r="AC18" s="3">
-        <f>MIN(AB18,AC17)+G18</f>
-        <v>1287</v>
+        <f>MAX(AB18,AC17)+G18</f>
+        <v>1480</v>
       </c>
       <c r="AD18" s="3">
-        <f>MIN(AC18,AD17)+H18</f>
-        <v>1209</v>
+        <f>MAX(AC18,AD17)+H18</f>
+        <v>1617</v>
       </c>
       <c r="AE18" s="3">
-        <f>MIN(AD18,AE17)+I18</f>
-        <v>1199</v>
+        <f>MAX(AD18,AE17)+I18</f>
+        <v>1701</v>
       </c>
       <c r="AF18" s="3">
-        <f>MIN(AE18,AF17)+J18</f>
-        <v>1209</v>
+        <f>MAX(AE18,AF17)+J18</f>
+        <v>1761</v>
       </c>
       <c r="AG18" s="3">
-        <f>MIN(AF18,AG17)+K18</f>
-        <v>1206</v>
+        <f>MAX(AF18,AG17)+K18</f>
+        <v>1795</v>
       </c>
       <c r="AH18" s="3">
-        <f>MIN(AG18,AH17)+L18</f>
-        <v>1299</v>
+        <f>MAX(AG18,AH17)+L18</f>
+        <v>1888</v>
       </c>
       <c r="AI18" s="3">
-        <f>MIN(AH18,AI17)+M18</f>
-        <v>1276</v>
+        <f>MAX(AH18,AI17)+M18</f>
+        <v>1901</v>
       </c>
       <c r="AJ18" s="3">
-        <f>MIN(AI18,AJ17)+N18</f>
-        <v>1186</v>
+        <f>MAX(AI18,AJ17)+N18</f>
+        <v>1986</v>
       </c>
       <c r="AK18" s="3">
-        <f>MIN(AJ18,AK17)+O18</f>
-        <v>1236</v>
+        <f>MAX(AJ18,AK17)+O18</f>
+        <v>2139</v>
       </c>
       <c r="AL18" s="3">
-        <f>MIN(AK18,AL17)+P18</f>
-        <v>1285</v>
+        <f>MAX(AK18,AL17)+P18</f>
+        <v>2220</v>
       </c>
       <c r="AM18" s="3">
-        <f>MIN(AL18,AM17)+Q18</f>
-        <v>1240</v>
+        <f>MAX(AL18,AM17)+Q18</f>
+        <v>2284</v>
       </c>
       <c r="AN18" s="3">
-        <f>MIN(AM18,AN17)+R18</f>
-        <v>1315</v>
+        <f>MAX(AM18,AN17)+R18</f>
+        <v>2373</v>
       </c>
       <c r="AO18" s="3">
-        <f>MIN(AN18,AO17)+S18</f>
-        <v>1320</v>
+        <f>MAX(AN18,AO17)+S18</f>
+        <v>2448</v>
       </c>
       <c r="AP18" s="4">
-        <f>MIN(AO18,AP17)+T18</f>
-        <v>1354</v>
+        <f>MAX(AO18,AP17)+T18</f>
+        <v>2506</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -3152,80 +3111,80 @@
         <v>1166</v>
       </c>
       <c r="X19" s="3">
-        <f>MIN(W19,X18)+B19</f>
-        <v>1113</v>
+        <f>MAX(W19,X18)+B19</f>
+        <v>1220</v>
       </c>
       <c r="Y19" s="3">
-        <f>MIN(X19,Y18)+C19</f>
-        <v>1163</v>
+        <f>MAX(X19,Y18)+C19</f>
+        <v>1313</v>
       </c>
       <c r="Z19" s="3">
-        <f>MIN(Y19,Z18)+D19</f>
-        <v>1189</v>
+        <f>MAX(Y19,Z18)+D19</f>
+        <v>1384</v>
       </c>
       <c r="AA19" s="3">
-        <f>MIN(Z19,AA18)+E19</f>
-        <v>1236</v>
+        <f>MAX(Z19,AA18)+E19</f>
+        <v>1435</v>
       </c>
       <c r="AB19" s="3">
-        <f>MIN(AA19,AB18)+F19</f>
-        <v>1271</v>
+        <f>MAX(AA19,AB18)+F19</f>
+        <v>1482</v>
       </c>
       <c r="AC19" s="3">
-        <f>MIN(AB19,AC18)+G19</f>
-        <v>1308</v>
+        <f>MAX(AB19,AC18)+G19</f>
+        <v>1519</v>
       </c>
       <c r="AD19" s="3">
-        <f>MIN(AC19,AD18)+H19</f>
-        <v>1222</v>
+        <f>MAX(AC19,AD18)+H19</f>
+        <v>1630</v>
       </c>
       <c r="AE19" s="3">
-        <f>MIN(AD19,AE18)+I19</f>
-        <v>1290</v>
+        <f>MAX(AD19,AE18)+I19</f>
+        <v>1792</v>
       </c>
       <c r="AF19" s="3">
-        <f>MIN(AE19,AF18)+J19</f>
-        <v>1287</v>
+        <f>MAX(AE19,AF18)+J19</f>
+        <v>1870</v>
       </c>
       <c r="AG19" s="3">
-        <f>MIN(AF19,AG18)+K19</f>
-        <v>1239</v>
+        <f>MAX(AF19,AG18)+K19</f>
+        <v>1903</v>
       </c>
       <c r="AH19" s="3">
-        <f>MIN(AG19,AH18)+L19</f>
-        <v>1337</v>
+        <f>MAX(AG19,AH18)+L19</f>
+        <v>2001</v>
       </c>
       <c r="AI19" s="3">
-        <f>MIN(AH19,AI18)+M19</f>
-        <v>1325</v>
+        <f>MAX(AH19,AI18)+M19</f>
+        <v>2050</v>
       </c>
       <c r="AJ19" s="3">
-        <f>MIN(AI19,AJ18)+N19</f>
-        <v>1210</v>
+        <f>MAX(AI19,AJ18)+N19</f>
+        <v>2074</v>
       </c>
       <c r="AK19" s="3">
-        <f>MIN(AJ19,AK18)+O19</f>
-        <v>1259</v>
+        <f>MAX(AJ19,AK18)+O19</f>
+        <v>2188</v>
       </c>
       <c r="AL19" s="3">
-        <f>MIN(AK19,AL18)+P19</f>
-        <v>1285</v>
+        <f>MAX(AK19,AL18)+P19</f>
+        <v>2246</v>
       </c>
       <c r="AM19" s="3">
-        <f>MIN(AL19,AM18)+Q19</f>
-        <v>1293</v>
+        <f>MAX(AL19,AM18)+Q19</f>
+        <v>2337</v>
       </c>
       <c r="AN19" s="3">
-        <f>MIN(AM19,AN18)+R19</f>
-        <v>1325</v>
+        <f>MAX(AM19,AN18)+R19</f>
+        <v>2405</v>
       </c>
       <c r="AO19" s="3">
-        <f>MIN(AN19,AO18)+S19</f>
-        <v>1418</v>
+        <f>MAX(AN19,AO18)+S19</f>
+        <v>2546</v>
       </c>
       <c r="AP19" s="4">
-        <f>MIN(AO19,AP18)+T19</f>
-        <v>1401</v>
+        <f>MAX(AO19,AP18)+T19</f>
+        <v>2593</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3294,83 +3253,95 @@
         <v>1256</v>
       </c>
       <c r="X20" s="7">
-        <f>MIN(W20,X19)+B20</f>
-        <v>1164</v>
+        <f>MAX(W20,X19)+B20</f>
+        <v>1307</v>
       </c>
       <c r="Y20" s="7">
-        <f>MIN(X20,Y19)+C20</f>
-        <v>1177</v>
+        <f>MAX(X20,Y19)+C20</f>
+        <v>1327</v>
       </c>
       <c r="Z20" s="7">
-        <f>MIN(Y20,Z19)+D20</f>
-        <v>1268</v>
+        <f>MAX(Y20,Z19)+D20</f>
+        <v>1475</v>
       </c>
       <c r="AA20" s="7">
-        <f>MIN(Z20,AA19)+E20</f>
-        <v>1294</v>
+        <f>MAX(Z20,AA19)+E20</f>
+        <v>1533</v>
       </c>
       <c r="AB20" s="7">
-        <f>MIN(AA20,AB19)+F20</f>
-        <v>1328</v>
+        <f>MAX(AA20,AB19)+F20</f>
+        <v>1590</v>
       </c>
       <c r="AC20" s="7">
-        <f>MIN(AB20,AC19)+G20</f>
-        <v>1341</v>
+        <f>MAX(AB20,AC19)+G20</f>
+        <v>1623</v>
       </c>
       <c r="AD20" s="7">
-        <f>MIN(AC20,AD19)+H20</f>
-        <v>1264</v>
+        <f>MAX(AC20,AD19)+H20</f>
+        <v>1672</v>
       </c>
       <c r="AE20" s="7">
-        <f>MIN(AD20,AE19)+I20</f>
-        <v>1286</v>
+        <f>MAX(AD20,AE19)+I20</f>
+        <v>1814</v>
       </c>
       <c r="AF20" s="7">
-        <f>MIN(AE20,AF19)+J20</f>
-        <v>1368</v>
+        <f>MAX(AE20,AF19)+J20</f>
+        <v>1952</v>
       </c>
       <c r="AG20" s="7">
-        <f>MIN(AF20,AG19)+K20</f>
-        <v>1292</v>
+        <f>MAX(AF20,AG19)+K20</f>
+        <v>2005</v>
       </c>
       <c r="AH20" s="7">
-        <f>MIN(AG20,AH19)+L20</f>
-        <v>1315</v>
+        <f>MAX(AG20,AH19)+L20</f>
+        <v>2028</v>
       </c>
       <c r="AI20" s="7">
-        <f>MIN(AH20,AI19)+M20</f>
-        <v>1346</v>
+        <f>MAX(AH20,AI19)+M20</f>
+        <v>2081</v>
       </c>
       <c r="AJ20" s="7">
-        <f>MIN(AI20,AJ19)+N20</f>
-        <v>1239</v>
+        <f>MAX(AI20,AJ19)+N20</f>
+        <v>2110</v>
       </c>
       <c r="AK20" s="7">
-        <f>MIN(AJ20,AK19)+O20</f>
-        <v>1312</v>
+        <f>MAX(AJ20,AK19)+O20</f>
+        <v>2261</v>
       </c>
       <c r="AL20" s="7">
-        <f>MIN(AK20,AL19)+P20</f>
-        <v>1366</v>
+        <f>MAX(AK20,AL19)+P20</f>
+        <v>2342</v>
       </c>
       <c r="AM20" s="7">
-        <f>MIN(AL20,AM19)+Q20</f>
-        <v>1339</v>
+        <f>MAX(AL20,AM19)+Q20</f>
+        <v>2388</v>
       </c>
       <c r="AN20" s="7">
-        <f>MIN(AM20,AN19)+R20</f>
-        <v>1371</v>
+        <f>MAX(AM20,AN19)+R20</f>
+        <v>2451</v>
       </c>
       <c r="AO20" s="7">
-        <f>MIN(AN20,AO19)+S20</f>
-        <v>1386</v>
+        <f>MAX(AN20,AO19)+S20</f>
+        <v>2561</v>
       </c>
       <c r="AP20" s="10">
-        <f>MIN(AO20,AP19)+T20</f>
-        <v>1400</v>
+        <f>MAX(AO20,AP19)+T20</f>
+        <v>2607</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <f>928+1136</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <f>2607+2154</f>
+        <v>4761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
